--- a/medicine/Enfance/Anne_Bozellec/Anne_Bozellec.xlsx
+++ b/medicine/Enfance/Anne_Bozellec/Anne_Bozellec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Bozellec (née en 1943) est une auteure et illustratrice française en littérature jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Bozellec est autodidacte en illustration. Elle a vécu 10 ans en Amérique du Sud, notamment en Colombie et à Panama[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Bozellec est autodidacte en illustration. Elle a vécu 10 ans en Amérique du Sud, notamment en Colombie et à Panama,. 
 Avec Christian Bruel, elle a fondé la maison d’éditions « Le sourire qui mord ». Elle a par ailleurs beaucoup collaboré avec lui, illustrant de nombreuses fois ses albums. 
 En 1987, elle a obtenu le Prix Sorcières, catégorie tout-petits, pour Liberté Nounours.
 </t>
@@ -544,11 +558,48 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[3],[4] dont :
-Illustratrice
-Christian Bruel et Anne Galland, Histoire de Julie qui avait une ombre de garçon, illustré par Anne Bozellec, Paris, Le sourire qui mord, 1976 ; rééd. Être, 2009 ; rééd. Thierry Magnier, 2014
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres, dont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne_Bozellec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Bozellec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Christian Bruel et Anne Galland, Histoire de Julie qui avait une ombre de garçon, illustré par Anne Bozellec, Paris, Le sourire qui mord, 1976 ; rééd. Être, 2009 ; rééd. Thierry Magnier, 2014
 Christian Bruel, Qui pleure ? , ill. Anne Bozellec, 1977
 Christian Bruel, Lison et l’eau dormante, avec Annie Galland et Anne Bozellec, Le Sourire qui mord, 1978.
 Christian Bruel, La manginoire, avec Anne Bozellec, le Sourire qui mord, 1979
